--- a/메모/Project Time Estimate Platformer.xlsx
+++ b/메모/Project Time Estimate Platformer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\View\Documents\GitHub\BeginningPlatformer\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB222368-9A62-4980-87C1-CAC0608D06B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8949674A-1662-49BD-93E0-244BC6ADFC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>벽 점프 점프 애니메이션 비활성화하고 수행해보기</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>장애물 만들고 플레이어 피격시키기</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -110,6 +106,10 @@
   </si>
   <si>
     <t>v</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 점프 문제 해결</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -271,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -293,28 +293,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -536,7 +527,7 @@
   <dimension ref="A1:H50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -552,11 +543,11 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>24</v>
+      <c r="D1" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -567,11 +558,11 @@
         <v>13</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="32" t="s">
-        <v>25</v>
+      <c r="D2" s="22" t="s">
+        <v>24</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -579,387 +570,387 @@
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="18"/>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="29"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="17"/>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="29"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" s="20"/>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="33"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="22" t="s">
+      <c r="F10" s="26"/>
+      <c r="G10" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="26"/>
     </row>
     <row r="11" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="27">
+      <c r="D12" s="23"/>
+      <c r="E12" s="28">
         <f>(COUNTIF(C2:C19,"SHORT")*B45)+(COUNTIF(C2:C19,"MEDIUM"*B46)+(COUNTIF(C2:C19,"LONG")*B47)+(COUNTIF(C2:C19,"EPIC")*B48)+(COUNTIF(C2:C19,"R&amp;D")*B49))</f>
         <v>168</v>
       </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="23">
+      <c r="F12" s="26"/>
+      <c r="G12" s="28">
         <f>E12/B50</f>
         <v>21</v>
       </c>
-      <c r="H12" s="21"/>
+      <c r="H12" s="26"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="33"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="33"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C20" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C21" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" s="29"/>
+      <c r="C21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="21"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C22" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="29"/>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="21"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C23" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="29"/>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="21"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C24" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="29"/>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="21"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C25" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" s="29"/>
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="21"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C26" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="29"/>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="21"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C27" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="29"/>
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="21"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C28" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="29"/>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="21"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C29" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" s="29"/>
+      <c r="C29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="21"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="33"/>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="33"/>
+      <c r="C31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" s="33"/>
+      <c r="C32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="33"/>
+      <c r="C33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" s="33"/>
+      <c r="C34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" s="33"/>
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" s="33"/>
+      <c r="C36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="23"/>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" s="33"/>
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="23"/>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" s="33"/>
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="23"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" s="33"/>
+      <c r="C39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="33"/>
+      <c r="C40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="24"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="21"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4"/>

--- a/메모/Project Time Estimate Platformer.xlsx
+++ b/메모/Project Time Estimate Platformer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\View\Documents\GitHub\BeginningPlatformer\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8949674A-1662-49BD-93E0-244BC6ADFC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6EA805-8727-4AAE-B2FA-448C49E4BFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="3540" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
   <si>
     <t>Task</t>
   </si>
@@ -110,6 +110,10 @@
   </si>
   <si>
     <t>벽 점프 문제 해결</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 이동장치</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -524,10 +528,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -559,7 +563,7 @@
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D2" s="22" t="s">
         <v>24</v>
@@ -574,7 +578,7 @@
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="4"/>
@@ -587,9 +591,11 @@
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -600,9 +606,11 @@
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -612,9 +620,11 @@
         <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>24</v>
+      </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -658,67 +668,67 @@
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="4" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="25" t="s">
+      <c r="D11" s="23"/>
+      <c r="E11" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="25" t="s">
+      <c r="F11" s="26"/>
+      <c r="G11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
       <c r="H11" s="26"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="23"/>
-      <c r="E12" s="28">
-        <f>(COUNTIF(C2:C19,"SHORT")*B45)+(COUNTIF(C2:C19,"MEDIUM"*B46)+(COUNTIF(C2:C19,"LONG")*B47)+(COUNTIF(C2:C19,"EPIC")*B48)+(COUNTIF(C2:C19,"R&amp;D")*B49))</f>
-        <v>168</v>
-      </c>
+      <c r="E12" s="27"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="28">
-        <f>E12/B50</f>
-        <v>21</v>
-      </c>
+      <c r="G12" s="26"/>
       <c r="H12" s="26"/>
     </row>
-    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+    <row r="13" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="23"/>
-      <c r="E13" s="27"/>
+      <c r="E13" s="28">
+        <f>(COUNTIF(C2:C20,"SHORT")*B46)+(COUNTIF(C2:C20,"MEDIUM"*B47)+(COUNTIF(C2:C20,"LONG")*B48)+(COUNTIF(C2:C20,"EPIC")*B49)+(COUNTIF(C2:C20,"R&amp;D")*B50))</f>
+        <v>176</v>
+      </c>
       <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="G13" s="28">
+        <f>E13/B51</f>
+        <v>22</v>
+      </c>
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -794,11 +804,13 @@
       <c r="H19" s="26"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="23"/>
-      <c r="E20" s="29"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="26"/>
       <c r="G20" s="26"/>
       <c r="H20" s="26"/>
@@ -807,16 +819,17 @@
       <c r="C21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="21"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D22" s="21"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C23" s="4" t="s">
@@ -881,11 +894,14 @@
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D30" s="23"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="4" t="s">
@@ -948,97 +964,103 @@
       <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="29"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
+      <c r="C41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4"/>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B45" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3" t="s">
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B46" s="2">
         <v>2</v>
       </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="8">
+      <c r="B47" s="8">
         <v>6</v>
       </c>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B48" s="10">
         <v>16</v>
       </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="11" t="s">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B48" s="12">
+      <c r="B49" s="12">
         <v>24</v>
       </c>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B49" s="14">
+      <c r="B50" s="14">
         <v>40</v>
       </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="15" t="s">
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B51" s="16">
         <v>8</v>
       </c>
-      <c r="C50" s="4"/>
+      <c r="C51" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E10:F11"/>
-    <mergeCell ref="G10:H11"/>
-    <mergeCell ref="E12:F19"/>
-    <mergeCell ref="G12:H19"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="E13:F20"/>
+    <mergeCell ref="G13:H20"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E21:H21"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C40" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C41" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"-,SHORT,MEDIUM,LONG,EPIC,R&amp;D"</formula1>
     </dataValidation>
   </dataValidations>

--- a/메모/Project Time Estimate Platformer.xlsx
+++ b/메모/Project Time Estimate Platformer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\View\Documents\GitHub\BeginningPlatformer\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6EA805-8727-4AAE-B2FA-448C49E4BFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C54DE7-C736-4D1F-8FF0-CBE19EA82527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3285" yWindow="3540" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
   <si>
     <t>Task</t>
   </si>
@@ -114,6 +114,114 @@
   </si>
   <si>
     <t>플레이어 이동장치</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>점수 시스템</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동하는 장애물</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SHORT</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간 이내</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>LONG</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPIC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간 이상</t>
+    </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +229,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -133,27 +241,32 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="33"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -161,6 +274,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -202,6 +316,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="9">
@@ -528,10 +649,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -569,8 +690,12 @@
         <v>24</v>
       </c>
       <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -582,8 +707,12 @@
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
@@ -597,8 +726,12 @@
         <v>24</v>
       </c>
       <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
@@ -612,8 +745,12 @@
         <v>24</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
@@ -626,8 +763,12 @@
         <v>24</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
@@ -637,16 +778,18 @@
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="21"/>
+      <c r="D7" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="17"/>
+        <v>27</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
         <v>5</v>
       </c>
@@ -657,8 +800,9 @@
     </row>
     <row r="9" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
-        <v>17</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B9" s="17"/>
       <c r="C9" s="4" t="s">
         <v>5</v>
       </c>
@@ -669,7 +813,7 @@
     </row>
     <row r="10" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -680,62 +824,54 @@
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="20"/>
+      <c r="A11" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="26"/>
+        <v>5</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>28</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="4"/>
+      <c r="A13" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="20"/>
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="23"/>
-      <c r="E13" s="28">
-        <f>(COUNTIF(C2:C20,"SHORT")*B46)+(COUNTIF(C2:C20,"MEDIUM"*B47)+(COUNTIF(C2:C20,"LONG")*B48)+(COUNTIF(C2:C20,"EPIC")*B49)+(COUNTIF(C2:C20,"R&amp;D")*B50))</f>
-        <v>176</v>
+      <c r="E13" s="25" t="s">
+        <v>8</v>
       </c>
       <c r="F13" s="26"/>
-      <c r="G13" s="28">
-        <f>E13/B51</f>
-        <v>22</v>
+      <c r="G13" s="25" t="s">
+        <v>9</v>
       </c>
       <c r="H13" s="26"/>
     </row>
-    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
+    <row r="14" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="27"/>
@@ -743,16 +879,24 @@
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
     </row>
-    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
+    <row r="15" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>22</v>
+      </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="23"/>
-      <c r="E15" s="27"/>
+      <c r="E15" s="28">
+        <f>(COUNTIF(C2:C22,"SHORT")*B48)+(COUNTIF(C2:C22,"MEDIUM"*B49)+(COUNTIF(C2:C22,"LONG")*B50)+(COUNTIF(C2:C22,"EPIC")*B51)+(COUNTIF(C2:C22,"R&amp;D")*B52))</f>
+        <v>208</v>
+      </c>
       <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="G15" s="28">
+        <f>E15/B53</f>
+        <v>26</v>
+      </c>
       <c r="H15" s="26"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -816,38 +960,44 @@
       <c r="H20" s="26"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D21" s="23"/>
-      <c r="E21" s="29"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="26"/>
       <c r="G21" s="26"/>
       <c r="H21" s="26"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
       <c r="C22" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="21"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D24" s="21"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C25" s="4" t="s">
@@ -903,17 +1053,23 @@
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D31" s="23"/>
-    </row>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D31" s="21"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C32" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D32" s="23"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="4" t="s">
@@ -970,97 +1126,109 @@
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="29"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="C43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5" t="s">
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3" t="s">
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B48" s="2">
         <v>2</v>
       </c>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="8">
+      <c r="B49" s="8">
         <v>6</v>
       </c>
-      <c r="C47" s="4"/>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B50" s="10">
         <v>16</v>
       </c>
-      <c r="C48" s="4"/>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="11" t="s">
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B49" s="12">
+      <c r="B51" s="12">
         <v>24</v>
       </c>
-      <c r="C49" s="4"/>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B50" s="14">
+      <c r="B52" s="14">
         <v>40</v>
       </c>
-      <c r="C50" s="4"/>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="15" t="s">
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="16">
+      <c r="B53" s="16">
         <v>8</v>
       </c>
-      <c r="C51" s="4"/>
+      <c r="C53" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="E13:F20"/>
-    <mergeCell ref="G13:H20"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="E13:F14"/>
+    <mergeCell ref="G13:H14"/>
+    <mergeCell ref="E15:F22"/>
+    <mergeCell ref="G15:H22"/>
+    <mergeCell ref="E23:H23"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="C2:C41" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C2:C43" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"-,SHORT,MEDIUM,LONG,EPIC,R&amp;D"</formula1>
     </dataValidation>
   </dataValidations>

--- a/메모/Project Time Estimate Platformer.xlsx
+++ b/메모/Project Time Estimate Platformer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\View\Documents\GitHub\BeginningPlatformer\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C54DE7-C736-4D1F-8FF0-CBE19EA82527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949035ED-A89F-4A58-B3A7-9459D0CF68C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3975" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
   <si>
     <t>Task</t>
   </si>
@@ -422,6 +422,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -430,7 +431,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -652,7 +652,7 @@
   <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -791,9 +791,11 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -856,14 +858,14 @@
         <v>6</v>
       </c>
       <c r="D13" s="23"/>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="25" t="s">
+      <c r="F13" s="27"/>
+      <c r="G13" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="26"/>
+      <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
@@ -874,10 +876,10 @@
         <v>5</v>
       </c>
       <c r="D14" s="23"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
     </row>
     <row r="15" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
@@ -888,16 +890,16 @@
         <v>6</v>
       </c>
       <c r="D15" s="23"/>
-      <c r="E15" s="28">
+      <c r="E15" s="29">
         <f>(COUNTIF(C2:C22,"SHORT")*B48)+(COUNTIF(C2:C22,"MEDIUM"*B49)+(COUNTIF(C2:C22,"LONG")*B50)+(COUNTIF(C2:C22,"EPIC")*B51)+(COUNTIF(C2:C22,"R&amp;D")*B52))</f>
-        <v>208</v>
-      </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="28">
+        <v>194</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="29">
         <f>E15/B53</f>
-        <v>26</v>
-      </c>
-      <c r="H15" s="26"/>
+        <v>24.25</v>
+      </c>
+      <c r="H15" s="27"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
@@ -906,10 +908,10 @@
         <v>7</v>
       </c>
       <c r="D16" s="23"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -918,10 +920,10 @@
         <v>7</v>
       </c>
       <c r="D17" s="23"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
@@ -930,10 +932,10 @@
         <v>7</v>
       </c>
       <c r="D18" s="23"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
@@ -942,10 +944,10 @@
         <v>7</v>
       </c>
       <c r="D19" s="23"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
     </row>
     <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
@@ -954,10 +956,10 @@
         <v>7</v>
       </c>
       <c r="D20" s="23"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
@@ -966,10 +968,10 @@
         <v>7</v>
       </c>
       <c r="D21" s="23"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
@@ -978,20 +980,20 @@
         <v>7</v>
       </c>
       <c r="D22" s="23"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C23" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D23" s="23"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C24" s="4" t="s">
@@ -1138,9 +1140,9 @@
       <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="25"/>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4"/>

--- a/메모/Project Time Estimate Platformer.xlsx
+++ b/메모/Project Time Estimate Platformer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\View\Documents\GitHub\BeginningPlatformer\메모\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{949035ED-A89F-4A58-B3A7-9459D0CF68C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E89E274-2EAA-46CD-A427-3C1205340B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="4215" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>Task</t>
   </si>
@@ -149,8 +149,24 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>2</t>
+    <t>LONG</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>EPIC</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>R&amp;D</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 시스템 만들기(근거리, 원거리)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
     </r>
     <r>
       <rPr>
@@ -162,15 +178,14 @@
       </rPr>
       <t>시간</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>LONG</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>4</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~2</t>
     </r>
     <r>
       <rPr>
@@ -185,12 +200,8 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>EPIC</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
+    <r>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -202,15 +213,84 @@
       </rPr>
       <t>시간</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>R&amp;D</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>16</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시간</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>~16</t>
     </r>
     <r>
       <rPr>
@@ -222,6 +302,26 @@
       </rPr>
       <t>시간 이상</t>
     </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>인벤토리 만들기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>박스 때리거나 몬스터 잡으면 아이템 드랍하게 하기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이터스 창 만들기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>강화 창 만들기</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>마을 만들기</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -396,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -431,6 +531,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -651,8 +752,8 @@
   </sheetPr>
   <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -711,7 +812,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
@@ -727,10 +828,10 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
@@ -746,10 +847,10 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
@@ -764,10 +865,10 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
@@ -806,9 +907,11 @@
       </c>
       <c r="B9" s="17"/>
       <c r="C9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="21"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -820,26 +923,27 @@
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="21"/>
+      <c r="D10" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>26</v>
+      <c r="A11" s="19" t="s">
+        <v>41</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="21"/>
+        <v>7</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>5</v>
@@ -850,14 +954,13 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="20"/>
+      <c r="A13" s="17" t="s">
+        <v>28</v>
+      </c>
       <c r="C13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="23"/>
+        <v>5</v>
+      </c>
+      <c r="D13" s="21"/>
       <c r="E13" s="26" t="s">
         <v>8</v>
       </c>
@@ -868,12 +971,12 @@
       <c r="H13" s="27"/>
     </row>
     <row r="14" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="4"/>
+      <c r="A14" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="20"/>
       <c r="C14" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D14" s="23"/>
       <c r="E14" s="28"/>
@@ -892,17 +995,19 @@
       <c r="D15" s="23"/>
       <c r="E15" s="29">
         <f>(COUNTIF(C2:C22,"SHORT")*B48)+(COUNTIF(C2:C22,"MEDIUM"*B49)+(COUNTIF(C2:C22,"LONG")*B50)+(COUNTIF(C2:C22,"EPIC")*B51)+(COUNTIF(C2:C22,"R&amp;D")*B52))</f>
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="29">
         <f>E15/B53</f>
-        <v>24.25</v>
+        <v>22.25</v>
       </c>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
+    <row r="16" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>35</v>
+      </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4" t="s">
         <v>7</v>
@@ -913,8 +1018,10 @@
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
+    <row r="17" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4" t="s">
         <v>7</v>
@@ -925,9 +1032,10 @@
       <c r="G17" s="27"/>
       <c r="H17" s="27"/>
     </row>
-    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
+    <row r="18" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>42</v>
+      </c>
       <c r="C18" s="4" t="s">
         <v>7</v>
       </c>
@@ -937,9 +1045,10 @@
       <c r="G18" s="27"/>
       <c r="H18" s="27"/>
     </row>
-    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
+    <row r="19" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
+        <v>43</v>
+      </c>
       <c r="C19" s="4" t="s">
         <v>7</v>
       </c>
@@ -949,8 +1058,10 @@
       <c r="G19" s="27"/>
       <c r="H19" s="27"/>
     </row>
-    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+    <row r="20" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
+        <v>44</v>
+      </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
         <v>7</v>
@@ -961,11 +1072,13 @@
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
     </row>
-    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+    <row r="21" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="17" t="s">
+        <v>21</v>
+      </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D21" s="23"/>
       <c r="E21" s="28"/>
